--- a/class-Seating/座位表(空白).xlsx
+++ b/class-Seating/座位表(空白).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Yeh\Desktop\座位表web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2C3AB0-6A15-45DD-9A8A-FC3D2E0351A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3762E00-6397-4CB0-9490-4619603F530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10395" yWindow="1710" windowWidth="18075" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1607,143 +1607,126 @@
     <xf numFmtId="176" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1753,134 +1736,151 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B46"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2480,74 +2480,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="78"/>
+      <c r="D1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="94">
+      <c r="O3" s="71">
         <f ca="1">TODAY()</f>
         <v>45173</v>
       </c>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -2555,19 +2555,19 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="113" t="str">
+      <c r="E4" s="63"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="58" t="str">
         <f>IF(COUNTIF(B2:B55, "*")&gt;0, COUNTIF(B2:B55, "*"), "全班人數:        人")</f>
         <v>全班人數:        人</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2575,32 +2575,32 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="O5" s="109" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="O5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="106"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="108"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2618,18 +2618,18 @@
       <c r="L7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="36">
         <v>6</v>
       </c>
       <c r="N7" s="24"/>
-      <c r="O7" s="99" t="s">
+      <c r="O7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="100" t="s">
+      <c r="P7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="102" t="str">
+      <c r="Q7" s="69"/>
+      <c r="R7" s="68" t="str">
         <f>IF(Q7&gt;0, VLOOKUP(Q7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2639,72 +2639,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="89" t="str">
+      <c r="D8" s="39" t="str">
         <f t="shared" ref="D8:K8" si="0">IF(D7&gt;0, VLOOKUP(D7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E8" s="86" t="str">
+      <c r="E8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="89" t="str">
+      <c r="F8" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="86" t="str">
+      <c r="G8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="89" t="str">
+      <c r="H8" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="86" t="str">
+      <c r="I8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="89" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="86" t="str">
+      <c r="K8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="81"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="74"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="60"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="69" t="s">
+      <c r="O9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="96" t="s">
+      <c r="P9" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="73" t="str">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="48" t="str">
         <f>IF(Q9&gt;0, VLOOKUP(Q9, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2714,46 +2714,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="74"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="60"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="69" t="s">
+      <c r="O11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="96" t="s">
+      <c r="P11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="73" t="str">
+      <c r="Q11" s="42"/>
+      <c r="R11" s="48" t="str">
         <f>IF(Q11&gt;0, VLOOKUP(Q11, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2763,21 +2763,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="97"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -2795,18 +2795,18 @@
       <c r="L13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="36">
         <v>5</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="69" t="s">
+      <c r="O13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="73" t="str">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="48" t="str">
         <f>IF(Q13&gt;0, VLOOKUP(Q13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2816,47 +2816,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="89" t="str">
+      <c r="D14" s="39" t="str">
         <f t="shared" ref="D14:K14" si="1">IF(D13&gt;0, VLOOKUP(D13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E14" s="86" t="str">
+      <c r="E14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="89" t="str">
+      <c r="F14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="86" t="str">
+      <c r="G14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="89" t="str">
+      <c r="H14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="86" t="str">
+      <c r="I14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J14" s="89" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="86" t="str">
+      <c r="K14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" s="80" t="s">
+      <c r="L14" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="81"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="74"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="60"/>
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,25 +2864,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="69" t="s">
+      <c r="O15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="71" t="s">
+      <c r="P15" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="73" t="str">
+      <c r="Q15" s="42"/>
+      <c r="R15" s="48" t="str">
         <f>IF(Q15&gt;0, VLOOKUP(Q15, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2892,46 +2892,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="97"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="69" t="s">
+      <c r="O17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="71" t="s">
+      <c r="P17" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="73" t="str">
+      <c r="Q17" s="42"/>
+      <c r="R17" s="48" t="str">
         <f>IF(Q17&gt;0, VLOOKUP(Q17, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2941,21 +2941,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="74"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -2973,18 +2973,18 @@
       <c r="L19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="85">
+      <c r="M19" s="36">
         <v>4</v>
       </c>
       <c r="N19" s="24"/>
-      <c r="O19" s="69" t="s">
+      <c r="O19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="71" t="s">
+      <c r="P19" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="73" t="str">
+      <c r="Q19" s="42"/>
+      <c r="R19" s="48" t="str">
         <f>IF(Q19&gt;0, VLOOKUP(Q19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2994,72 +2994,72 @@
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="D20" s="89" t="str">
+      <c r="D20" s="39" t="str">
         <f t="shared" ref="D20:K20" si="2">IF(D19&gt;0, VLOOKUP(D19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E20" s="86" t="str">
+      <c r="E20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F20" s="89" t="str">
+      <c r="F20" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="86" t="str">
+      <c r="G20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H20" s="89" t="str">
+      <c r="H20" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="86" t="str">
+      <c r="I20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="89" t="str">
+      <c r="J20" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="86" t="str">
+      <c r="K20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="80" t="s">
+      <c r="L20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="81"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="74"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="60"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="69" t="s">
+      <c r="O21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="71" t="s">
+      <c r="P21" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="73" t="str">
+      <c r="Q21" s="42"/>
+      <c r="R21" s="48" t="str">
         <f>IF(Q21&gt;0, VLOOKUP(Q21, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3069,46 +3069,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="74"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="60"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="69" t="s">
+      <c r="O23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="71" t="s">
+      <c r="P23" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="73" t="str">
+      <c r="Q23" s="42"/>
+      <c r="R23" s="48" t="str">
         <f>IF(Q23&gt;0, VLOOKUP(Q23, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3118,21 +3118,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="97"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="49"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
@@ -3150,18 +3150,18 @@
       <c r="L25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="85">
+      <c r="M25" s="36">
         <v>3</v>
       </c>
       <c r="N25" s="24"/>
-      <c r="O25" s="69" t="s">
+      <c r="O25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P25" s="71" t="s">
+      <c r="P25" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="73" t="str">
+      <c r="Q25" s="42"/>
+      <c r="R25" s="48" t="str">
         <f>IF(Q25&gt;0, VLOOKUP(Q25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3171,72 +3171,72 @@
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="D26" s="89" t="str">
+      <c r="D26" s="39" t="str">
         <f t="shared" ref="D26:K26" si="3">IF(D25&gt;0, VLOOKUP(D25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E26" s="86" t="str">
+      <c r="E26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="89" t="str">
+      <c r="F26" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="86" t="str">
+      <c r="G26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H26" s="89" t="str">
+      <c r="H26" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="86" t="str">
+      <c r="I26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J26" s="89" t="str">
+      <c r="J26" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="86" t="str">
+      <c r="K26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L26" s="80" t="s">
+      <c r="L26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="37"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="97"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="49"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="69" t="s">
+      <c r="O27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P27" s="71" t="s">
+      <c r="P27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="73" t="str">
+      <c r="Q27" s="42"/>
+      <c r="R27" s="48" t="str">
         <f>IF(Q27&gt;0, VLOOKUP(Q27, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3246,46 +3246,46 @@
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="97"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="49"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="69" t="s">
+      <c r="O29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="71" t="s">
+      <c r="P29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="73" t="str">
+      <c r="Q29" s="42"/>
+      <c r="R29" s="48" t="str">
         <f>IF(Q29&gt;0, VLOOKUP(Q29, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3295,21 +3295,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="97"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="49"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
@@ -3327,18 +3327,18 @@
       <c r="L31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M31" s="85">
+      <c r="M31" s="36">
         <v>2</v>
       </c>
       <c r="N31" s="24"/>
-      <c r="O31" s="69" t="s">
+      <c r="O31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="71" t="s">
+      <c r="P31" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="73" t="str">
+      <c r="Q31" s="42"/>
+      <c r="R31" s="48" t="str">
         <f>IF(Q31&gt;0, VLOOKUP(Q31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3348,72 +3348,72 @@
         <v>31</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="D32" s="89" t="str">
+      <c r="D32" s="39" t="str">
         <f t="shared" ref="D32:K32" si="4">IF(D31&gt;0, VLOOKUP(D31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E32" s="86" t="str">
+      <c r="E32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F32" s="89" t="str">
+      <c r="F32" s="39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G32" s="86" t="str">
+      <c r="G32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H32" s="89" t="str">
+      <c r="H32" s="39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="86" t="str">
+      <c r="I32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J32" s="89" t="str">
+      <c r="J32" s="39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K32" s="86" t="str">
+      <c r="K32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L32" s="80" t="s">
+      <c r="L32" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="81"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="74"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="60"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="69" t="s">
+      <c r="O33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P33" s="71" t="s">
+      <c r="P33" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="73" t="str">
+      <c r="Q33" s="42"/>
+      <c r="R33" s="48" t="str">
         <f>IF(Q33&gt;0, VLOOKUP(Q33, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3423,37 +3423,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="77"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="76"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="25"/>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3461,16 +3461,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
       <c r="N36" s="25"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3489,7 +3489,7 @@
       <c r="L37" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="85">
+      <c r="M37" s="36">
         <v>1</v>
       </c>
       <c r="N37" s="24"/>
@@ -3499,42 +3499,42 @@
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="D38" s="89" t="str">
+      <c r="D38" s="39" t="str">
         <f t="shared" ref="D38:K38" si="5">IF(D37&gt;0, VLOOKUP(D37, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E38" s="86" t="str">
+      <c r="E38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F38" s="89" t="str">
+      <c r="F38" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G38" s="86" t="str">
+      <c r="G38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H38" s="89" t="str">
+      <c r="H38" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="86" t="str">
+      <c r="I38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J38" s="89" t="str">
+      <c r="J38" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K38" s="86" t="str">
+      <c r="K38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L38" s="80" t="s">
+      <c r="L38" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="81"/>
+      <c r="M38" s="37"/>
       <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,16 +3542,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3559,16 +3559,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
       <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3576,16 +3576,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
       <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3593,16 +3593,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3647,10 +3647,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="D45" s="119" t="s">
+      <c r="D45" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="120"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -3664,10 +3664,10 @@
       <c r="V46" s="19"/>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="52"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -3678,7 +3678,7 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="104"/>
+      <c r="P47" s="70"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
@@ -3686,8 +3686,8 @@
       <c r="V47" s="19"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -3698,7 +3698,7 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="104"/>
+      <c r="P48" s="70"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
@@ -3706,37 +3706,37 @@
       <c r="V48" s="19"/>
     </row>
     <row r="49" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="59"/>
-      <c r="H49" s="61" t="s">
+      <c r="G49" s="90"/>
+      <c r="H49" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="57" t="s">
+      <c r="I49" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="57" t="s">
+      <c r="J49" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="59"/>
-      <c r="L49" s="63" t="s">
+      <c r="K49" s="90"/>
+      <c r="L49" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="64"/>
-      <c r="N49" s="57" t="s">
+      <c r="M49" s="95"/>
+      <c r="N49" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="O49" s="115" t="s">
+      <c r="O49" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P49" s="116"/>
+      <c r="P49" s="29"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
@@ -3744,19 +3744,19 @@
       <c r="V49" s="19"/>
     </row>
     <row r="50" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="56"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="117"/>
-      <c r="P50" s="118"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="31"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -3764,30 +3764,30 @@
       <c r="V50" s="19"/>
     </row>
     <row r="51" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46" t="str">
+      <c r="E51" s="100"/>
+      <c r="F51" s="102" t="str">
         <f>IF(E51&gt;0, VLOOKUP(E51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="46" t="str">
+      <c r="G51" s="103"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="102" t="str">
         <f>IF(I51&gt;0, VLOOKUP(I51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="49" t="str">
+      <c r="K51" s="103"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="111" t="str">
         <f>IF(N51&gt;0, VLOOKUP(N51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P51" s="50"/>
+      <c r="P51" s="112"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
@@ -3795,19 +3795,19 @@
       <c r="V51" s="19"/>
     </row>
     <row r="52" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="28"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="43"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="114"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
@@ -3815,30 +3815,30 @@
       <c r="V52" s="19"/>
     </row>
     <row r="53" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="32" t="str">
+      <c r="E53" s="101"/>
+      <c r="F53" s="104" t="str">
         <f>IF(E53&gt;0, VLOOKUP(E53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="32" t="str">
+      <c r="G53" s="105"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="104" t="str">
         <f>IF(I53&gt;0, VLOOKUP(I53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K53" s="33"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="38" t="str">
+      <c r="K53" s="105"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="101"/>
+      <c r="O53" s="117" t="str">
         <f>IF(N53&gt;0, VLOOKUP(N53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P53" s="39"/>
+      <c r="P53" s="118"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
@@ -3846,19 +3846,19 @@
       <c r="V53" s="19"/>
     </row>
     <row r="54" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="28"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="43"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="114"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
@@ -3866,30 +3866,30 @@
       <c r="V54" s="19"/>
     </row>
     <row r="55" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="32" t="str">
+      <c r="E55" s="101"/>
+      <c r="F55" s="104" t="str">
         <f t="shared" ref="F55" si="6">IF(E55&gt;0, VLOOKUP(E55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="32" t="str">
+      <c r="G55" s="105"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="104" t="str">
         <f t="shared" ref="J55" si="7">IF(I55&gt;0, VLOOKUP(I55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="38" t="str">
+      <c r="K55" s="105"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="117" t="str">
         <f t="shared" ref="O55" si="8">IF(N55&gt;0, VLOOKUP(N55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P55" s="39"/>
+      <c r="P55" s="118"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
@@ -3897,19 +3897,19 @@
       <c r="V55" s="19"/>
     </row>
     <row r="56" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="28"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="123"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="43"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="114"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
@@ -3917,28 +3917,28 @@
       <c r="V56" s="19"/>
     </row>
     <row r="57" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="28"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="32" t="str">
+      <c r="D57" s="99"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="104" t="str">
         <f t="shared" ref="F57" si="9">IF(E57&gt;0, VLOOKUP(E57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="32" t="str">
+      <c r="G57" s="105"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="104" t="str">
         <f t="shared" ref="J57" si="10">IF(I57&gt;0, VLOOKUP(I57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="125"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="38" t="str">
+      <c r="K57" s="105"/>
+      <c r="L57" s="115"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="117" t="str">
         <f t="shared" ref="O57" si="11">IF(N57&gt;0, VLOOKUP(N57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P57" s="39"/>
+      <c r="P57" s="118"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
@@ -3946,61 +3946,220 @@
       <c r="V57" s="19"/>
     </row>
     <row r="58" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="28"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="123"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="43"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="114"/>
     </row>
     <row r="59" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="28"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="32" t="str">
+      <c r="D59" s="99"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="104" t="str">
         <f t="shared" ref="F59" si="12">IF(E59&gt;0, VLOOKUP(E59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="32" t="str">
+      <c r="G59" s="105"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="104" t="str">
         <f t="shared" ref="J59" si="13">IF(I59&gt;0, VLOOKUP(I59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="38" t="str">
+      <c r="K59" s="105"/>
+      <c r="L59" s="115"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="117" t="str">
         <f t="shared" ref="O59" si="14">IF(N59&gt;0, VLOOKUP(N59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P59" s="39"/>
+      <c r="P59" s="118"/>
     </row>
     <row r="60" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="29"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="127"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="41"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="123"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="125"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="126"/>
+      <c r="P60" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:K58"/>
+    <mergeCell ref="L57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="D1:M3"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
     <mergeCell ref="O49:P50"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="O25:O26"/>
@@ -4025,165 +4184,6 @@
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="I20:I24"/>
     <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="D1:M3"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="L53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:K58"/>
-    <mergeCell ref="L57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:P60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A46">

--- a/class-Seating/座位表(空白).xlsx
+++ b/class-Seating/座位表(空白).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Yeh\Desktop\座位表web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3762E00-6397-4CB0-9490-4619603F530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7F3DEE-7786-4DCC-8DC7-C3060EBDBD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="1710" windowWidth="18075" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="420" windowWidth="18075" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1607,281 +1607,283 @@
     <xf numFmtId="176" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2453,14 +2455,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="工作表1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I8" sqref="I8:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2480,74 +2482,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="B1" s="127"/>
+      <c r="D1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="71">
+      <c r="O3" s="99">
         <f ca="1">TODAY()</f>
-        <v>45173</v>
-      </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+        <v>45174</v>
+      </c>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -2555,19 +2557,19 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58" t="str">
+      <c r="E4" s="103"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="118" t="str">
         <f>IF(COUNTIF(B2:B55, "*")&gt;0, COUNTIF(B2:B55, "*"), "全班人數:        人")</f>
         <v>全班人數:        人</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2575,32 +2577,32 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="O5" s="54" t="s">
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="O5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="113"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2618,18 +2620,18 @@
       <c r="L7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="90">
         <v>6</v>
       </c>
       <c r="N7" s="24"/>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="68" t="str">
+      <c r="Q7" s="108"/>
+      <c r="R7" s="107" t="str">
         <f>IF(Q7&gt;0, VLOOKUP(Q7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2639,72 +2641,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="39" t="str">
+      <c r="D8" s="94" t="str">
         <f t="shared" ref="D8:K8" si="0">IF(D7&gt;0, VLOOKUP(D7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E8" s="44" t="str">
+      <c r="E8" s="91" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="44" t="str">
+      <c r="G8" s="91" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="44" t="str">
+      <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="39" t="str">
+      <c r="J8" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="44" t="str">
+      <c r="K8" s="91" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="37"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="60"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="81"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="48" t="str">
+      <c r="Q9" s="74"/>
+      <c r="R9" s="80" t="str">
         <f>IF(Q9&gt;0, VLOOKUP(Q9, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2714,46 +2716,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="60"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="81"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="48" t="str">
+      <c r="Q11" s="74"/>
+      <c r="R11" s="80" t="str">
         <f>IF(Q11&gt;0, VLOOKUP(Q11, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2763,21 +2765,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="49"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="102"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -2795,18 +2797,18 @@
       <c r="L13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="90">
         <v>5</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="48" t="str">
+      <c r="Q13" s="74"/>
+      <c r="R13" s="80" t="str">
         <f>IF(Q13&gt;0, VLOOKUP(Q13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2816,47 +2818,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="39" t="str">
+      <c r="D14" s="94" t="str">
         <f t="shared" ref="D14:K14" si="1">IF(D13&gt;0, VLOOKUP(D13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E14" s="44" t="str">
+      <c r="E14" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="44" t="str">
+      <c r="G14" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="39" t="str">
+      <c r="H14" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="44" t="str">
+      <c r="I14" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J14" s="39" t="str">
+      <c r="J14" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="44" t="str">
+      <c r="K14" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="37"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="60"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="81"/>
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,25 +2866,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="48" t="str">
+      <c r="Q15" s="74"/>
+      <c r="R15" s="80" t="str">
         <f>IF(Q15&gt;0, VLOOKUP(Q15, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2892,46 +2894,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="49"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="102"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="48" t="str">
+      <c r="Q17" s="74"/>
+      <c r="R17" s="80" t="str">
         <f>IF(Q17&gt;0, VLOOKUP(Q17, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2941,21 +2943,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="60"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="81"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -2973,18 +2975,18 @@
       <c r="L19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="90">
         <v>4</v>
       </c>
       <c r="N19" s="24"/>
-      <c r="O19" s="34" t="s">
+      <c r="O19" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="40" t="s">
+      <c r="P19" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="48" t="str">
+      <c r="Q19" s="74"/>
+      <c r="R19" s="80" t="str">
         <f>IF(Q19&gt;0, VLOOKUP(Q19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2994,72 +2996,72 @@
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="D20" s="39" t="str">
+      <c r="D20" s="94" t="str">
         <f t="shared" ref="D20:K20" si="2">IF(D19&gt;0, VLOOKUP(D19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F20" s="39" t="str">
+      <c r="F20" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="44" t="str">
+      <c r="G20" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H20" s="39" t="str">
+      <c r="H20" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="44" t="str">
+      <c r="I20" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="39" t="str">
+      <c r="J20" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="44" t="str">
+      <c r="K20" s="91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="37"/>
+      <c r="M20" s="86"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="60"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="81"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="48" t="str">
+      <c r="Q21" s="74"/>
+      <c r="R21" s="80" t="str">
         <f>IF(Q21&gt;0, VLOOKUP(Q21, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3069,46 +3071,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="60"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="81"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="48" t="str">
+      <c r="Q23" s="74"/>
+      <c r="R23" s="80" t="str">
         <f>IF(Q23&gt;0, VLOOKUP(Q23, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3118,21 +3120,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="49"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="102"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
@@ -3150,18 +3152,18 @@
       <c r="L25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="90">
         <v>3</v>
       </c>
       <c r="N25" s="24"/>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="P25" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="48" t="str">
+      <c r="Q25" s="74"/>
+      <c r="R25" s="80" t="str">
         <f>IF(Q25&gt;0, VLOOKUP(Q25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3171,72 +3173,72 @@
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="D26" s="39" t="str">
+      <c r="D26" s="94" t="str">
         <f t="shared" ref="D26:K26" si="3">IF(D25&gt;0, VLOOKUP(D25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E26" s="44" t="str">
+      <c r="E26" s="91" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="39" t="str">
+      <c r="F26" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="44" t="str">
+      <c r="G26" s="91" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H26" s="39" t="str">
+      <c r="H26" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="44" t="str">
+      <c r="I26" s="91" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J26" s="39" t="str">
+      <c r="J26" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="44" t="str">
+      <c r="K26" s="91" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="37"/>
+      <c r="M26" s="86"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="49"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="102"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="P27" s="40" t="s">
+      <c r="P27" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="48" t="str">
+      <c r="Q27" s="74"/>
+      <c r="R27" s="80" t="str">
         <f>IF(Q27&gt;0, VLOOKUP(Q27, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3246,46 +3248,46 @@
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="49"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="102"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="P29" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="48" t="str">
+      <c r="Q29" s="74"/>
+      <c r="R29" s="80" t="str">
         <f>IF(Q29&gt;0, VLOOKUP(Q29, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3295,21 +3297,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="49"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="102"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
@@ -3327,18 +3329,18 @@
       <c r="L31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="90">
         <v>2</v>
       </c>
       <c r="N31" s="24"/>
-      <c r="O31" s="34" t="s">
+      <c r="O31" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="40" t="s">
+      <c r="P31" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="48" t="str">
+      <c r="Q31" s="74"/>
+      <c r="R31" s="80" t="str">
         <f>IF(Q31&gt;0, VLOOKUP(Q31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3348,72 +3350,72 @@
         <v>31</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="D32" s="39" t="str">
+      <c r="D32" s="94" t="str">
         <f t="shared" ref="D32:K32" si="4">IF(D31&gt;0, VLOOKUP(D31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E32" s="44" t="str">
+      <c r="E32" s="91" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F32" s="39" t="str">
+      <c r="F32" s="94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G32" s="44" t="str">
+      <c r="G32" s="91" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H32" s="39" t="str">
+      <c r="H32" s="94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="44" t="str">
+      <c r="I32" s="91" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J32" s="39" t="str">
+      <c r="J32" s="94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K32" s="44" t="str">
+      <c r="K32" s="91" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="37"/>
+      <c r="M32" s="86"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="60"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="81"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="P33" s="40" t="s">
+      <c r="P33" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="48" t="str">
+      <c r="Q33" s="74"/>
+      <c r="R33" s="80" t="str">
         <f>IF(Q33&gt;0, VLOOKUP(Q33, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3423,37 +3425,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="76"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="84"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
       <c r="N35" s="25"/>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3461,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
       <c r="N36" s="25"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3489,7 +3491,7 @@
       <c r="L37" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="90">
         <v>1</v>
       </c>
       <c r="N37" s="24"/>
@@ -3499,42 +3501,42 @@
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="D38" s="39" t="str">
+      <c r="D38" s="94" t="str">
         <f t="shared" ref="D38:K38" si="5">IF(D37&gt;0, VLOOKUP(D37, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E38" s="44" t="str">
+      <c r="E38" s="91" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F38" s="39" t="str">
+      <c r="F38" s="94" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G38" s="44" t="str">
+      <c r="G38" s="91" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H38" s="39" t="str">
+      <c r="H38" s="94" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="44" t="str">
+      <c r="I38" s="91" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J38" s="39" t="str">
+      <c r="J38" s="94" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K38" s="44" t="str">
+      <c r="K38" s="91" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L38" s="47" t="s">
+      <c r="L38" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="37"/>
+      <c r="M38" s="86"/>
       <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,16 +3544,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3559,16 +3561,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
       <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3576,16 +3578,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
       <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3593,16 +3595,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3647,10 +3649,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="33"/>
+      <c r="E45" s="125"/>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -3664,10 +3666,10 @@
       <c r="V46" s="19"/>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="83"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -3678,7 +3680,7 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="70"/>
+      <c r="P47" s="109"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
@@ -3686,8 +3688,8 @@
       <c r="V47" s="19"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="84"/>
-      <c r="E48" s="85"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -3698,7 +3700,7 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="70"/>
+      <c r="P48" s="109"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
@@ -3706,37 +3708,37 @@
       <c r="V48" s="19"/>
     </row>
     <row r="49" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="88" t="s">
+      <c r="F49" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="92" t="s">
+      <c r="G49" s="66"/>
+      <c r="H49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="88" t="s">
+      <c r="I49" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="88" t="s">
+      <c r="J49" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="90"/>
-      <c r="L49" s="94" t="s">
+      <c r="K49" s="66"/>
+      <c r="L49" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="95"/>
-      <c r="N49" s="88" t="s">
+      <c r="M49" s="71"/>
+      <c r="N49" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="O49" s="28" t="s">
+      <c r="O49" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="P49" s="29"/>
+      <c r="P49" s="121"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
@@ -3744,19 +3746,19 @@
       <c r="V49" s="19"/>
     </row>
     <row r="50" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="87"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="31"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="123"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -3764,30 +3766,30 @@
       <c r="V50" s="19"/>
     </row>
     <row r="51" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="98" t="s">
+      <c r="D51" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="102" t="str">
+      <c r="E51" s="51"/>
+      <c r="F51" s="52" t="str">
         <f>IF(E51&gt;0, VLOOKUP(E51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G51" s="103"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="102" t="str">
+      <c r="G51" s="53"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="52" t="str">
         <f>IF(I51&gt;0, VLOOKUP(I51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K51" s="103"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="111" t="str">
+      <c r="K51" s="53"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="56" t="str">
         <f>IF(N51&gt;0, VLOOKUP(N51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P51" s="112"/>
+      <c r="P51" s="57"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
@@ -3795,19 +3797,19 @@
       <c r="V51" s="19"/>
     </row>
     <row r="52" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="99"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="101"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="114"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="49"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
@@ -3815,30 +3817,30 @@
       <c r="V52" s="19"/>
     </row>
     <row r="53" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="99" t="s">
+      <c r="D53" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="101"/>
-      <c r="F53" s="104" t="str">
+      <c r="E53" s="30"/>
+      <c r="F53" s="32" t="str">
         <f>IF(E53&gt;0, VLOOKUP(E53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G53" s="105"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="104" t="str">
+      <c r="G53" s="33"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="32" t="str">
         <f>IF(I53&gt;0, VLOOKUP(I53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K53" s="105"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="101"/>
-      <c r="O53" s="117" t="str">
+      <c r="K53" s="33"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="42" t="str">
         <f>IF(N53&gt;0, VLOOKUP(N53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P53" s="118"/>
+      <c r="P53" s="43"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
@@ -3846,19 +3848,19 @@
       <c r="V53" s="19"/>
     </row>
     <row r="54" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="99"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="110"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="114"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="49"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
@@ -3866,30 +3868,30 @@
       <c r="V54" s="19"/>
     </row>
     <row r="55" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="99" t="s">
+      <c r="D55" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="104" t="str">
+      <c r="E55" s="30"/>
+      <c r="F55" s="32" t="str">
         <f t="shared" ref="F55" si="6">IF(E55&gt;0, VLOOKUP(E55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G55" s="105"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="104" t="str">
+      <c r="G55" s="33"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="32" t="str">
         <f t="shared" ref="J55" si="7">IF(I55&gt;0, VLOOKUP(I55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K55" s="105"/>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="101"/>
-      <c r="O55" s="117" t="str">
+      <c r="K55" s="33"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="42" t="str">
         <f t="shared" ref="O55" si="8">IF(N55&gt;0, VLOOKUP(N55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P55" s="118"/>
+      <c r="P55" s="43"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
@@ -3897,19 +3899,19 @@
       <c r="V55" s="19"/>
     </row>
     <row r="56" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="99"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="110"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="101"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="114"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="49"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
@@ -3917,28 +3919,28 @@
       <c r="V56" s="19"/>
     </row>
     <row r="57" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="99"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="104" t="str">
+      <c r="D57" s="28"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="32" t="str">
         <f t="shared" ref="F57" si="9">IF(E57&gt;0, VLOOKUP(E57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G57" s="105"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="104" t="str">
+      <c r="G57" s="33"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="32" t="str">
         <f t="shared" ref="J57" si="10">IF(I57&gt;0, VLOOKUP(I57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K57" s="105"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="117" t="str">
+      <c r="K57" s="33"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="42" t="str">
         <f t="shared" ref="O57" si="11">IF(N57&gt;0, VLOOKUP(N57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P57" s="118"/>
+      <c r="P57" s="43"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
@@ -3946,115 +3948,166 @@
       <c r="V57" s="19"/>
     </row>
     <row r="58" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="99"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="110"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="114"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="49"/>
     </row>
     <row r="59" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="99"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="104" t="str">
+      <c r="D59" s="28"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="32" t="str">
         <f t="shared" ref="F59" si="12">IF(E59&gt;0, VLOOKUP(E59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G59" s="105"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="104" t="str">
+      <c r="G59" s="33"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="32" t="str">
         <f t="shared" ref="J59" si="13">IF(I59&gt;0, VLOOKUP(I59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K59" s="105"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="116"/>
-      <c r="N59" s="101"/>
-      <c r="O59" s="117" t="str">
+      <c r="K59" s="33"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="42" t="str">
         <f t="shared" ref="O59" si="14">IF(N59&gt;0, VLOOKUP(N59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P59" s="118"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="119"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="125"/>
-      <c r="N60" s="120"/>
-      <c r="O60" s="126"/>
-      <c r="P60" s="127"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:K58"/>
-    <mergeCell ref="L57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="L53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:M50"/>
-    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="O31:O32"/>
     <mergeCell ref="P31:P32"/>
@@ -4079,111 +4132,60 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:K58"/>
+    <mergeCell ref="L57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:P60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A46">

--- a/class-Seating/座位表(空白).xlsx
+++ b/class-Seating/座位表(空白).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Yeh\Desktop\座位表web\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Yeh\Desktop\座位表web\excel\巨集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7F3DEE-7786-4DCC-8DC7-C3060EBDBD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CBB73E-AAB2-4757-86A7-B6218CAADDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="420" windowWidth="18075" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2685" windowWidth="16410" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="0" shapeId="0" xr:uid="{D6B9F4E8-E504-4C72-B4D2-A11B2B01808A}">
+    <comment ref="R29" authorId="0" shapeId="0" xr:uid="{27A0DC26-2845-42F3-B6AF-55C8ED853B51}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>班級名條</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>學藝股長</t>
-  </si>
-  <si>
-    <t>輔導股長</t>
   </si>
   <si>
     <t>前門</t>
@@ -393,14 +390,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>實習股長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圖書股長</t>
   </si>
   <si>
     <t>總務股長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊股長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1532,11 +1529,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1607,283 +1615,298 @@
     <xf numFmtId="176" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2462,7 +2485,7 @@
   <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I12"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2482,74 +2505,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="D1" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="78"/>
+      <c r="D1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
+      <c r="O1" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="99">
+      <c r="O3" s="71">
         <f ca="1">TODAY()</f>
-        <v>45174</v>
-      </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
+        <v>45176</v>
+      </c>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -2557,19 +2580,19 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="118" t="str">
+      <c r="D4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="58" t="str">
         <f>IF(COUNTIF(B2:B55, "*")&gt;0, COUNTIF(B2:B55, "*"), "全班人數:        人")</f>
         <v>全班人數:        人</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2577,32 +2600,32 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="O5" s="114" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="O5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="111"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="113"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2620,18 +2643,18 @@
       <c r="L7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="90">
+      <c r="M7" s="36">
         <v>6</v>
       </c>
       <c r="N7" s="24"/>
-      <c r="O7" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="107" t="str">
+      <c r="O7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="68" t="str">
         <f>IF(Q7&gt;0, VLOOKUP(Q7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2641,72 +2664,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="94" t="str">
+      <c r="D8" s="39" t="str">
         <f t="shared" ref="D8:K8" si="0">IF(D7&gt;0, VLOOKUP(D7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E8" s="91" t="str">
+      <c r="E8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="94" t="str">
+      <c r="F8" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="91" t="str">
+      <c r="G8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="94" t="str">
+      <c r="H8" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="91" t="str">
+      <c r="I8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="94" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="91" t="str">
+      <c r="K8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="81"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="60"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="101" t="s">
+      <c r="O9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="80" t="str">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="48" t="str">
         <f>IF(Q9&gt;0, VLOOKUP(Q9, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2716,46 +2739,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="81"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="60"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="76" t="s">
+      <c r="O11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="101" t="s">
+      <c r="P11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="80" t="str">
+      <c r="Q11" s="42"/>
+      <c r="R11" s="48" t="str">
         <f>IF(Q11&gt;0, VLOOKUP(Q11, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2765,21 +2788,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="102"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -2797,18 +2820,18 @@
       <c r="L13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="90">
+      <c r="M13" s="36">
         <v>5</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="76" t="s">
+      <c r="O13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="78" t="s">
+      <c r="P13" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="80" t="str">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="48" t="str">
         <f>IF(Q13&gt;0, VLOOKUP(Q13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2818,47 +2841,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="94" t="str">
+      <c r="D14" s="39" t="str">
         <f t="shared" ref="D14:K14" si="1">IF(D13&gt;0, VLOOKUP(D13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E14" s="91" t="str">
+      <c r="E14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="94" t="str">
+      <c r="F14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="91" t="str">
+      <c r="G14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="94" t="str">
+      <c r="H14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="91" t="str">
+      <c r="I14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J14" s="94" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="91" t="str">
+      <c r="K14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="81"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="60"/>
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2866,25 +2889,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="78" t="s">
+      <c r="O15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="80" t="str">
+      <c r="Q15" s="42"/>
+      <c r="R15" s="48" t="str">
         <f>IF(Q15&gt;0, VLOOKUP(Q15, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2894,46 +2917,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="102"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="76" t="s">
+      <c r="O17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="78" t="s">
+      <c r="P17" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="80" t="str">
+      <c r="Q17" s="42"/>
+      <c r="R17" s="48" t="str">
         <f>IF(Q17&gt;0, VLOOKUP(Q17, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2943,21 +2966,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="81"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -2975,18 +2998,18 @@
       <c r="L19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="90">
+      <c r="M19" s="36">
         <v>4</v>
       </c>
       <c r="N19" s="24"/>
-      <c r="O19" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="78" t="s">
+      <c r="O19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="80" t="str">
+      <c r="Q19" s="42"/>
+      <c r="R19" s="48" t="str">
         <f>IF(Q19&gt;0, VLOOKUP(Q19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2996,72 +3019,72 @@
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="D20" s="94" t="str">
+      <c r="D20" s="39" t="str">
         <f t="shared" ref="D20:K20" si="2">IF(D19&gt;0, VLOOKUP(D19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E20" s="91" t="str">
+      <c r="E20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F20" s="94" t="str">
+      <c r="F20" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="91" t="str">
+      <c r="G20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H20" s="94" t="str">
+      <c r="H20" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="91" t="str">
+      <c r="I20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="94" t="str">
+      <c r="J20" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="91" t="str">
+      <c r="K20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="86"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="81"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="60"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="78" t="s">
+      <c r="O21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="80" t="str">
+      <c r="Q21" s="42"/>
+      <c r="R21" s="48" t="str">
         <f>IF(Q21&gt;0, VLOOKUP(Q21, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3071,46 +3094,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="81"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="60"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="78" t="s">
+      <c r="O23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="80" t="str">
+      <c r="Q23" s="42"/>
+      <c r="R23" s="48" t="str">
         <f>IF(Q23&gt;0, VLOOKUP(Q23, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3120,21 +3143,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="102"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="49"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
@@ -3152,18 +3175,18 @@
       <c r="L25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="90">
+      <c r="M25" s="36">
         <v>3</v>
       </c>
       <c r="N25" s="24"/>
-      <c r="O25" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="78" t="s">
+      <c r="O25" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="80" t="str">
+      <c r="Q25" s="42"/>
+      <c r="R25" s="48" t="str">
         <f>IF(Q25&gt;0, VLOOKUP(Q25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3173,72 +3196,70 @@
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="D26" s="94" t="str">
+      <c r="D26" s="39" t="str">
         <f t="shared" ref="D26:K26" si="3">IF(D25&gt;0, VLOOKUP(D25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E26" s="91" t="str">
+      <c r="E26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="94" t="str">
+      <c r="F26" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="91" t="str">
+      <c r="G26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H26" s="94" t="str">
+      <c r="H26" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="91" t="str">
+      <c r="I26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J26" s="94" t="str">
+      <c r="J26" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="91" t="str">
+      <c r="K26" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L26" s="85" t="s">
+      <c r="L26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="86"/>
+      <c r="M26" s="37"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="102"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="49"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P27" s="78" t="s">
+      <c r="O27" s="34"/>
+      <c r="P27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="80" t="str">
+      <c r="Q27" s="42"/>
+      <c r="R27" s="48" t="str">
         <f>IF(Q27&gt;0, VLOOKUP(Q27, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3248,46 +3269,44 @@
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="102"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="49"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" s="78" t="s">
+      <c r="O29" s="129"/>
+      <c r="P29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="80" t="str">
+      <c r="Q29" s="42"/>
+      <c r="R29" s="48" t="str">
         <f>IF(Q29&gt;0, VLOOKUP(Q29, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3297,21 +3316,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="102"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="49"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
@@ -3329,18 +3348,16 @@
       <c r="L31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M31" s="90">
+      <c r="M31" s="36">
         <v>2</v>
       </c>
       <c r="N31" s="24"/>
-      <c r="O31" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="78" t="s">
+      <c r="O31" s="34"/>
+      <c r="P31" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="80" t="str">
+      <c r="Q31" s="42"/>
+      <c r="R31" s="48" t="str">
         <f>IF(Q31&gt;0, VLOOKUP(Q31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3350,130 +3367,141 @@
         <v>31</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="D32" s="94" t="str">
+      <c r="D32" s="39" t="str">
         <f t="shared" ref="D32:K32" si="4">IF(D31&gt;0, VLOOKUP(D31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E32" s="91" t="str">
+      <c r="E32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F32" s="94" t="str">
+      <c r="F32" s="39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G32" s="91" t="str">
+      <c r="G32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H32" s="94" t="str">
+      <c r="H32" s="39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="91" t="str">
+      <c r="I32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J32" s="94" t="str">
+      <c r="J32" s="39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K32" s="91" t="str">
+      <c r="K32" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L32" s="85" t="s">
+      <c r="L32" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="86"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="81"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="60"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="P33" s="78" t="s">
+      <c r="O33" s="34"/>
+      <c r="P33" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="80" t="str">
+      <c r="Q33" s="42"/>
+      <c r="R33" s="48" t="str">
         <f>IF(Q33&gt;0, VLOOKUP(Q33, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="84"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="60"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="25"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="134" t="str">
+        <f>IF(Q35&gt;0, VLOOKUP(Q35, $A$2:$B$50, 2), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
       <c r="N36" s="25"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="76"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -3491,7 +3519,7 @@
       <c r="L37" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="90">
+      <c r="M37" s="36">
         <v>1</v>
       </c>
       <c r="N37" s="24"/>
@@ -3501,42 +3529,42 @@
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="D38" s="94" t="str">
+      <c r="D38" s="39" t="str">
         <f t="shared" ref="D38:K38" si="5">IF(D37&gt;0, VLOOKUP(D37, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E38" s="91" t="str">
+      <c r="E38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F38" s="94" t="str">
+      <c r="F38" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G38" s="91" t="str">
+      <c r="G38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H38" s="94" t="str">
+      <c r="H38" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="91" t="str">
+      <c r="I38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J38" s="94" t="str">
+      <c r="J38" s="39" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K38" s="91" t="str">
+      <c r="K38" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L38" s="85" t="s">
+      <c r="L38" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="86"/>
+      <c r="M38" s="37"/>
       <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3544,16 +3572,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,16 +3589,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
       <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3578,16 +3606,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
       <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,16 +3623,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3613,28 +3641,28 @@
       </c>
       <c r="B43" s="3"/>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="G43" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="H43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="I43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="J43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="K43" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="S43" s="19"/>
     </row>
@@ -3649,10 +3677,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="D45" s="124" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="125"/>
+      <c r="D45" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -3666,10 +3694,10 @@
       <c r="V46" s="19"/>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="59"/>
+      <c r="D47" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="83"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -3680,7 +3708,7 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="109"/>
+      <c r="P47" s="70"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
@@ -3688,8 +3716,8 @@
       <c r="V47" s="19"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -3700,7 +3728,7 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="109"/>
+      <c r="P48" s="70"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
@@ -3708,37 +3736,37 @@
       <c r="V48" s="19"/>
     </row>
     <row r="49" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="F49" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="66"/>
-      <c r="H49" s="68" t="s">
+      <c r="G49" s="90"/>
+      <c r="H49" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="64" t="s">
+      <c r="J49" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="66"/>
-      <c r="L49" s="70" t="s">
+      <c r="K49" s="90"/>
+      <c r="L49" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="95"/>
+      <c r="N49" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="71"/>
-      <c r="N49" s="64" t="s">
+      <c r="O49" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O49" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="P49" s="121"/>
+      <c r="P49" s="29"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
@@ -3746,19 +3774,19 @@
       <c r="V49" s="19"/>
     </row>
     <row r="50" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="63"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="123"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="31"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -3766,30 +3794,30 @@
       <c r="V50" s="19"/>
     </row>
     <row r="51" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52" t="str">
+      <c r="D51" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="100"/>
+      <c r="F51" s="102" t="str">
         <f>IF(E51&gt;0, VLOOKUP(E51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="52" t="str">
+      <c r="G51" s="103"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="102" t="str">
         <f>IF(I51&gt;0, VLOOKUP(I51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="56" t="str">
+      <c r="K51" s="103"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="111" t="str">
         <f>IF(N51&gt;0, VLOOKUP(N51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P51" s="57"/>
+      <c r="P51" s="112"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
@@ -3797,19 +3825,19 @@
       <c r="V51" s="19"/>
     </row>
     <row r="52" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="28"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="49"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="114"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
@@ -3817,30 +3845,30 @@
       <c r="V52" s="19"/>
     </row>
     <row r="53" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="32" t="str">
+      <c r="D53" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="101"/>
+      <c r="F53" s="104" t="str">
         <f>IF(E53&gt;0, VLOOKUP(E53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="32" t="str">
+      <c r="G53" s="105"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="104" t="str">
         <f>IF(I53&gt;0, VLOOKUP(I53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K53" s="33"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="42" t="str">
+      <c r="K53" s="105"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="101"/>
+      <c r="O53" s="117" t="str">
         <f>IF(N53&gt;0, VLOOKUP(N53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P53" s="43"/>
+      <c r="P53" s="118"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
@@ -3848,19 +3876,19 @@
       <c r="V53" s="19"/>
     </row>
     <row r="54" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="28"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="49"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="114"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
@@ -3868,30 +3896,30 @@
       <c r="V54" s="19"/>
     </row>
     <row r="55" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="32" t="str">
+      <c r="D55" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="101"/>
+      <c r="F55" s="104" t="str">
         <f t="shared" ref="F55" si="6">IF(E55&gt;0, VLOOKUP(E55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="32" t="str">
+      <c r="G55" s="105"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="104" t="str">
         <f t="shared" ref="J55" si="7">IF(I55&gt;0, VLOOKUP(I55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="42" t="str">
+      <c r="K55" s="105"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="117" t="str">
         <f t="shared" ref="O55" si="8">IF(N55&gt;0, VLOOKUP(N55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P55" s="43"/>
+      <c r="P55" s="118"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
@@ -3899,19 +3927,19 @@
       <c r="V55" s="19"/>
     </row>
     <row r="56" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="28"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="49"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="114"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
@@ -3919,28 +3947,28 @@
       <c r="V56" s="19"/>
     </row>
     <row r="57" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="28"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="32" t="str">
+      <c r="D57" s="99"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="104" t="str">
         <f t="shared" ref="F57" si="9">IF(E57&gt;0, VLOOKUP(E57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="32" t="str">
+      <c r="G57" s="105"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="104" t="str">
         <f t="shared" ref="J57" si="10">IF(I57&gt;0, VLOOKUP(I57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="42" t="str">
+      <c r="K57" s="105"/>
+      <c r="L57" s="115"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="117" t="str">
         <f t="shared" ref="O57" si="11">IF(N57&gt;0, VLOOKUP(N57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P57" s="43"/>
+      <c r="P57" s="118"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
@@ -3948,61 +3976,224 @@
       <c r="V57" s="19"/>
     </row>
     <row r="58" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="28"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="49"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="114"/>
     </row>
     <row r="59" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="28"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="32" t="str">
+      <c r="D59" s="99"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="104" t="str">
         <f t="shared" ref="F59" si="12">IF(E59&gt;0, VLOOKUP(E59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="32" t="str">
+      <c r="G59" s="105"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="104" t="str">
         <f t="shared" ref="J59" si="13">IF(I59&gt;0, VLOOKUP(I59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="42" t="str">
+      <c r="K59" s="105"/>
+      <c r="L59" s="115"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="117" t="str">
         <f t="shared" ref="O59" si="14">IF(N59&gt;0, VLOOKUP(N59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P59" s="43"/>
+      <c r="P59" s="118"/>
     </row>
     <row r="60" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="29"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="45"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="123"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="125"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="126"/>
+      <c r="P60" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="183">
+  <mergeCells count="187">
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:K58"/>
+    <mergeCell ref="L57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="D1:M3"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
     <mergeCell ref="O49:P50"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="O25:O26"/>
@@ -4027,165 +4218,6 @@
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="I20:I24"/>
     <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="D1:M3"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="L53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:K58"/>
-    <mergeCell ref="L57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:P60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A46">

--- a/class-Seating/座位表(空白).xlsx
+++ b/class-Seating/座位表(空白).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Yeh\Desktop\座位表web\excel\巨集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CBB73E-AAB2-4757-86A7-B6218CAADDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACCE8E7-1293-435B-B9B7-FD7B38A0C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2685" windowWidth="16410" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -672,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1540,11 +1540,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,301 +1668,295 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2482,7 +2533,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2494,8 +2545,8 @@
     <col min="2" max="2" width="8.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" style="9" customWidth="1"/>
     <col min="4" max="11" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="20" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" style="9" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" style="9" customWidth="1"/>
@@ -2505,74 +2556,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="B1" s="88"/>
+      <c r="D1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="71">
+      <c r="O3" s="103">
         <f ca="1">TODAY()</f>
-        <v>45176</v>
-      </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+        <v>45184</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -2580,19 +2631,19 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58" t="str">
+      <c r="E4" s="106"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="122" t="str">
         <f>IF(COUNTIF(B2:B55, "*")&gt;0, COUNTIF(B2:B55, "*"), "全班人數:        人")</f>
         <v>全班人數:        人</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -2600,32 +2651,32 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="O5" s="54" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="O5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="115"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="117"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2633,28 +2684,28 @@
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="94">
         <v>6</v>
       </c>
       <c r="N7" s="24"/>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="68" t="str">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="110" t="str">
         <f>IF(Q7&gt;0, VLOOKUP(Q7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2664,72 +2715,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="39" t="str">
+      <c r="D8" s="98" t="str">
         <f t="shared" ref="D8:K8" si="0">IF(D7&gt;0, VLOOKUP(D7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E8" s="44" t="str">
+      <c r="E8" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="98" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="44" t="str">
+      <c r="G8" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="98" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="44" t="str">
+      <c r="I8" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="39" t="str">
+      <c r="J8" s="98" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="44" t="str">
+      <c r="K8" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="37"/>
+      <c r="M8" s="90"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="60"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="85"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="48" t="str">
+      <c r="Q9" s="78"/>
+      <c r="R9" s="84" t="str">
         <f>IF(Q9&gt;0, VLOOKUP(Q9, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2739,46 +2790,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="60"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="85"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="48" t="str">
+      <c r="Q11" s="78"/>
+      <c r="R11" s="84" t="str">
         <f>IF(Q11&gt;0, VLOOKUP(Q11, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2788,21 +2839,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="49"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="105"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -2810,28 +2861,28 @@
       </c>
       <c r="B13" s="3"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="94">
         <v>5</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="48" t="str">
+      <c r="Q13" s="78"/>
+      <c r="R13" s="84" t="str">
         <f>IF(Q13&gt;0, VLOOKUP(Q13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2841,47 +2892,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="39" t="str">
+      <c r="D14" s="98" t="str">
         <f t="shared" ref="D14:K14" si="1">IF(D13&gt;0, VLOOKUP(D13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E14" s="44" t="str">
+      <c r="E14" s="95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="44" t="str">
+      <c r="G14" s="95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="39" t="str">
+      <c r="H14" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="44" t="str">
+      <c r="I14" s="95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J14" s="39" t="str">
+      <c r="J14" s="98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="44" t="str">
+      <c r="K14" s="95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="37"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="60"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="85"/>
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,25 +2940,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="48" t="str">
+      <c r="Q15" s="78"/>
+      <c r="R15" s="84" t="str">
         <f>IF(Q15&gt;0, VLOOKUP(Q15, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2917,46 +2968,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="49"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="48" t="str">
+      <c r="Q17" s="78"/>
+      <c r="R17" s="84" t="str">
         <f>IF(Q17&gt;0, VLOOKUP(Q17, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -2966,21 +3017,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="60"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="85"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -2988,28 +3039,28 @@
       </c>
       <c r="B19" s="3"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="26"/>
       <c r="L19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="94">
         <v>4</v>
       </c>
       <c r="N19" s="24"/>
-      <c r="O19" s="34" t="s">
+      <c r="O19" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="40" t="s">
+      <c r="P19" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="48" t="str">
+      <c r="Q19" s="78"/>
+      <c r="R19" s="84" t="str">
         <f>IF(Q19&gt;0, VLOOKUP(Q19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3019,72 +3070,72 @@
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="D20" s="39" t="str">
+      <c r="D20" s="98" t="str">
         <f t="shared" ref="D20:K20" si="2">IF(D19&gt;0, VLOOKUP(D19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F20" s="39" t="str">
+      <c r="F20" s="98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="44" t="str">
+      <c r="G20" s="95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H20" s="39" t="str">
+      <c r="H20" s="98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="44" t="str">
+      <c r="I20" s="95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="39" t="str">
+      <c r="J20" s="98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="44" t="str">
+      <c r="K20" s="95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="37"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="60"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="85"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="48" t="str">
+      <c r="Q21" s="78"/>
+      <c r="R21" s="84" t="str">
         <f>IF(Q21&gt;0, VLOOKUP(Q21, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3094,46 +3145,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="60"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="85"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="48" t="str">
+      <c r="Q23" s="78"/>
+      <c r="R23" s="84" t="str">
         <f>IF(Q23&gt;0, VLOOKUP(Q23, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3143,21 +3194,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="49"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="105"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
@@ -3165,28 +3216,28 @@
       </c>
       <c r="B25" s="3"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="27"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="27"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="27"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="94">
         <v>3</v>
       </c>
       <c r="N25" s="24"/>
-      <c r="O25" s="129" t="s">
+      <c r="O25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="P25" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="48" t="str">
+      <c r="Q25" s="78"/>
+      <c r="R25" s="84" t="str">
         <f>IF(Q25&gt;0, VLOOKUP(Q25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3196,70 +3247,70 @@
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="D26" s="39" t="str">
+      <c r="D26" s="98" t="str">
         <f t="shared" ref="D26:K26" si="3">IF(D25&gt;0, VLOOKUP(D25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E26" s="44" t="str">
+      <c r="E26" s="95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="39" t="str">
+      <c r="F26" s="98" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="44" t="str">
+      <c r="G26" s="95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H26" s="39" t="str">
+      <c r="H26" s="98" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="44" t="str">
+      <c r="I26" s="95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J26" s="39" t="str">
+      <c r="J26" s="98" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="44" t="str">
+      <c r="K26" s="95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="37"/>
+      <c r="M26" s="90"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="49"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="105"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="40" t="s">
+      <c r="O27" s="80"/>
+      <c r="P27" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="48" t="str">
+      <c r="Q27" s="78"/>
+      <c r="R27" s="84" t="str">
         <f>IF(Q27&gt;0, VLOOKUP(Q27, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3269,44 +3320,44 @@
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="49"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="105"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="40" t="s">
+      <c r="O29" s="28"/>
+      <c r="P29" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="48" t="str">
+      <c r="Q29" s="78"/>
+      <c r="R29" s="84" t="str">
         <f>IF(Q29&gt;0, VLOOKUP(Q29, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3316,21 +3367,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="49"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="105"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
@@ -3338,26 +3389,26 @@
       </c>
       <c r="B31" s="6"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="27"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="27"/>
+      <c r="K31" s="26"/>
       <c r="L31" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="94">
         <v>2</v>
       </c>
       <c r="N31" s="24"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="40" t="s">
+      <c r="O31" s="80"/>
+      <c r="P31" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="48" t="str">
+      <c r="Q31" s="78"/>
+      <c r="R31" s="84" t="str">
         <f>IF(Q31&gt;0, VLOOKUP(Q31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3367,70 +3418,70 @@
         <v>31</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="D32" s="39" t="str">
+      <c r="D32" s="98" t="str">
         <f t="shared" ref="D32:K32" si="4">IF(D31&gt;0, VLOOKUP(D31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E32" s="44" t="str">
+      <c r="E32" s="95" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F32" s="39" t="str">
+      <c r="F32" s="98" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G32" s="44" t="str">
+      <c r="G32" s="95" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H32" s="39" t="str">
+      <c r="H32" s="98" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="44" t="str">
+      <c r="I32" s="95" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J32" s="39" t="str">
+      <c r="J32" s="98" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K32" s="44" t="str">
+      <c r="K32" s="95" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="37"/>
+      <c r="M32" s="90"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="60"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="85"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="40" t="s">
+      <c r="O33" s="80"/>
+      <c r="P33" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="48" t="str">
+      <c r="Q33" s="78"/>
+      <c r="R33" s="84" t="str">
         <f>IF(Q33&gt;0, VLOOKUP(Q33, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3440,44 +3491,44 @@
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="60"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="85"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
       <c r="N35" s="25"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="65" t="s">
+      <c r="O35" s="28"/>
+      <c r="P35" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="134" t="str">
+      <c r="Q35" s="32"/>
+      <c r="R35" s="34" t="str">
         <f>IF(Q35&gt;0, VLOOKUP(Q35, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
@@ -3487,21 +3538,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
       <c r="N36" s="25"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="76"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="35"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -3509,17 +3560,17 @@
       </c>
       <c r="B37" s="2"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="27"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="27"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="27"/>
+      <c r="K37" s="26"/>
       <c r="L37" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="94">
         <v>1</v>
       </c>
       <c r="N37" s="24"/>
@@ -3529,42 +3580,42 @@
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="D38" s="39" t="str">
+      <c r="D38" s="98" t="str">
         <f t="shared" ref="D38:K38" si="5">IF(D37&gt;0, VLOOKUP(D37, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E38" s="44" t="str">
+      <c r="E38" s="95" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F38" s="39" t="str">
+      <c r="F38" s="98" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G38" s="44" t="str">
+      <c r="G38" s="95" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H38" s="39" t="str">
+      <c r="H38" s="98" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="44" t="str">
+      <c r="I38" s="95" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J38" s="39" t="str">
+      <c r="J38" s="98" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K38" s="44" t="str">
+      <c r="K38" s="95" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L38" s="47" t="s">
+      <c r="L38" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="37"/>
+      <c r="M38" s="90"/>
       <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3572,16 +3623,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,16 +3640,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
       <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3606,16 +3657,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
       <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3623,16 +3674,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,10 +3728,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="33"/>
+      <c r="E45" s="127"/>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
@@ -3694,21 +3745,21 @@
       <c r="V46" s="19"/>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="70"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="112"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
@@ -3716,19 +3767,19 @@
       <c r="V47" s="19"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="84"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="70"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="112"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
@@ -3736,37 +3787,37 @@
       <c r="V48" s="19"/>
     </row>
     <row r="49" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="88" t="s">
+      <c r="F49" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="92" t="s">
+      <c r="G49" s="71"/>
+      <c r="H49" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="88" t="s">
+      <c r="I49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="88" t="s">
+      <c r="J49" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="90"/>
-      <c r="L49" s="94" t="s">
+      <c r="K49" s="71"/>
+      <c r="L49" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="95"/>
-      <c r="N49" s="88" t="s">
+      <c r="M49" s="59"/>
+      <c r="N49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="28" t="s">
+      <c r="O49" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="P49" s="29"/>
+      <c r="P49" s="61"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
@@ -3774,19 +3825,19 @@
       <c r="V49" s="19"/>
     </row>
     <row r="50" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="87"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="31"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="124"/>
+      <c r="P50" s="125"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -3794,30 +3845,30 @@
       <c r="V50" s="19"/>
     </row>
     <row r="51" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="98" t="s">
+      <c r="D51" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="102" t="str">
+      <c r="E51" s="129"/>
+      <c r="F51" s="56" t="str">
         <f>IF(E51&gt;0, VLOOKUP(E51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G51" s="103"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="102" t="str">
+      <c r="G51" s="57"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="56" t="str">
         <f>IF(I51&gt;0, VLOOKUP(I51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K51" s="103"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="111" t="str">
+      <c r="K51" s="57"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="60" t="str">
         <f>IF(N51&gt;0, VLOOKUP(N51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P51" s="112"/>
+      <c r="P51" s="61"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
@@ -3825,19 +3876,19 @@
       <c r="V51" s="19"/>
     </row>
     <row r="52" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="99"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="101"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="114"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="55"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
@@ -3845,30 +3896,30 @@
       <c r="V52" s="19"/>
     </row>
     <row r="53" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="99" t="s">
+      <c r="D53" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="101"/>
-      <c r="F53" s="104" t="str">
+      <c r="E53" s="130"/>
+      <c r="F53" s="38" t="str">
         <f>IF(E53&gt;0, VLOOKUP(E53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G53" s="105"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="104" t="str">
+      <c r="G53" s="39"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="38" t="str">
         <f>IF(I53&gt;0, VLOOKUP(I53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K53" s="105"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="101"/>
-      <c r="O53" s="117" t="str">
+      <c r="K53" s="39"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="47" t="str">
         <f>IF(N53&gt;0, VLOOKUP(N53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P53" s="118"/>
+      <c r="P53" s="48"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
@@ -3876,19 +3927,19 @@
       <c r="V53" s="19"/>
     </row>
     <row r="54" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="99"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="110"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="114"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="55"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
@@ -3896,30 +3947,30 @@
       <c r="V54" s="19"/>
     </row>
     <row r="55" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="99" t="s">
+      <c r="D55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="104" t="str">
+      <c r="E55" s="130"/>
+      <c r="F55" s="38" t="str">
         <f t="shared" ref="F55" si="6">IF(E55&gt;0, VLOOKUP(E55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G55" s="105"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="104" t="str">
+      <c r="G55" s="39"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="38" t="str">
         <f t="shared" ref="J55" si="7">IF(I55&gt;0, VLOOKUP(I55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K55" s="105"/>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="101"/>
-      <c r="O55" s="117" t="str">
+      <c r="K55" s="39"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="47" t="str">
         <f t="shared" ref="O55" si="8">IF(N55&gt;0, VLOOKUP(N55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P55" s="118"/>
+      <c r="P55" s="48"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
@@ -3927,19 +3978,19 @@
       <c r="V55" s="19"/>
     </row>
     <row r="56" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="99"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="110"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="101"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="114"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="55"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
@@ -3947,28 +3998,28 @@
       <c r="V56" s="19"/>
     </row>
     <row r="57" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="99"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="104" t="str">
+      <c r="D57" s="36"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="38" t="str">
         <f t="shared" ref="F57" si="9">IF(E57&gt;0, VLOOKUP(E57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G57" s="105"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="104" t="str">
+      <c r="G57" s="39"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="38" t="str">
         <f t="shared" ref="J57" si="10">IF(I57&gt;0, VLOOKUP(I57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K57" s="105"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="117" t="str">
+      <c r="K57" s="39"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="47" t="str">
         <f t="shared" ref="O57" si="11">IF(N57&gt;0, VLOOKUP(N57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P57" s="118"/>
+      <c r="P57" s="48"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
@@ -3976,61 +4027,272 @@
       <c r="V57" s="19"/>
     </row>
     <row r="58" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="99"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="110"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="114"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="130"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="55"/>
     </row>
     <row r="59" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="99"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="104" t="str">
+      <c r="D59" s="36"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="38" t="str">
         <f t="shared" ref="F59" si="12">IF(E59&gt;0, VLOOKUP(E59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G59" s="105"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="104" t="str">
+      <c r="G59" s="39"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="38" t="str">
         <f t="shared" ref="J59" si="13">IF(I59&gt;0, VLOOKUP(I59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K59" s="105"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="116"/>
-      <c r="N59" s="101"/>
-      <c r="O59" s="117" t="str">
+      <c r="K59" s="39"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="47" t="str">
         <f t="shared" ref="O59" si="14">IF(N59&gt;0, VLOOKUP(N59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P59" s="118"/>
-    </row>
-    <row r="60" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="119"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="125"/>
-      <c r="N60" s="120"/>
-      <c r="O60" s="126"/>
-      <c r="P60" s="127"/>
+      <c r="P59" s="48"/>
+    </row>
+    <row r="60" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="37"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="50"/>
+    </row>
+    <row r="61" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="36"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="38" t="str">
+        <f t="shared" ref="F61" si="15">IF(E61&gt;0, VLOOKUP(E61, $A$2:$B$55, 2), "")</f>
+        <v/>
+      </c>
+      <c r="G61" s="39"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="38" t="str">
+        <f t="shared" ref="J61" si="16">IF(I61&gt;0, VLOOKUP(I61, $A$2:$B$55, 2), "")</f>
+        <v/>
+      </c>
+      <c r="K61" s="39"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="130"/>
+      <c r="O61" s="47" t="str">
+        <f t="shared" ref="O61" si="17">IF(N61&gt;0, VLOOKUP(N61, $A$2:$B$55, 2), "")</f>
+        <v/>
+      </c>
+      <c r="P61" s="48"/>
+    </row>
+    <row r="62" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="67"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="196">
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:K62"/>
+    <mergeCell ref="L61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="D1:M3"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:P54"/>
     <mergeCell ref="O35:O36"/>
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="Q35:Q36"/>
@@ -4055,169 +4317,6 @@
     <mergeCell ref="O57:P58"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="L53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="D1:M3"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="Q31:Q32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A46">

--- a/class-Seating/座位表(空白).xlsx
+++ b/class-Seating/座位表(空白).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Yeh\Desktop\座位表web\excel\巨集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACCE8E7-1293-435B-B9B7-FD7B38A0C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4FCF21-8B13-49BA-8968-8EC828652384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,13 +557,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +614,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1628,25 +1628,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1658,27 +1643,266 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1690,273 +1914,49 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1964,6 +1964,20 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1988,7 +2002,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2002,19 +2016,6 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2129,7 +2130,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2943225" y="8705850"/>
+          <a:off x="2948828" y="8778128"/>
           <a:ext cx="828675" cy="581025"/>
           <a:chOff x="4931663" y="3489488"/>
           <a:chExt cx="828675" cy="581025"/>
@@ -2319,8 +2320,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:B46" headerRowCount="0" headerRowDxfId="4" dataDxfId="3" totalsRowDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5D05CE4C-8BD8-430E-ABB8-D9E174AD4912}" name="欄1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5D05CE4C-8BD8-430E-ABB8-D9E174AD4912}" name="欄1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="工作表1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2535,7 +2536,7 @@
   </sheetPr>
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2547,7 +2548,7 @@
     <col min="4" max="11" width="7.7109375" style="9" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="9" customWidth="1"/>
     <col min="13" max="13" width="2.85546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="15" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" style="9" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" style="9" customWidth="1"/>
     <col min="17" max="17" width="4.7109375" style="9" customWidth="1"/>
@@ -2560,1576 +2561,1730 @@
         <v>0</v>
       </c>
       <c r="B1" s="88"/>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="100" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10">
+      <c r="A2" s="126">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11">
+      <c r="A3" s="127">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="103">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="84">
         <f ca="1">TODAY()</f>
-        <v>45184</v>
-      </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
+        <v>45185</v>
+      </c>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="127">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="106" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="122" t="str">
+      <c r="E4" s="75"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="69" t="str">
         <f>IF(COUNTIF(B2:B55, "*")&gt;0, COUNTIF(B2:B55, "*"), "全班人數:        人")</f>
         <v>全班人數:        人</v>
       </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="127">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="O5" s="118" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="O5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="115"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="128">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="117"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="126">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="23" t="s">
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="94">
+      <c r="M7" s="45">
         <v>6</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="107" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="108" t="s">
+      <c r="P7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="110" t="str">
+      <c r="Q7" s="81"/>
+      <c r="R7" s="80" t="str">
         <f>IF(Q7&gt;0, VLOOKUP(Q7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="127">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="98" t="str">
+      <c r="D8" s="48" t="str">
         <f t="shared" ref="D8:K8" si="0">IF(D7&gt;0, VLOOKUP(D7, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E8" s="95" t="str">
+      <c r="E8" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="98" t="str">
+      <c r="F8" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="95" t="str">
+      <c r="G8" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="98" t="str">
+      <c r="H8" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="95" t="str">
+      <c r="I8" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="98" t="str">
+      <c r="J8" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="95" t="str">
+      <c r="K8" s="54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="89" t="s">
+      <c r="L8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="85"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="71"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="127">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="80" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="84" t="str">
+      <c r="Q9" s="52"/>
+      <c r="R9" s="58" t="str">
         <f>IF(Q9&gt;0, VLOOKUP(Q9, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="127">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="85"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="71"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="128">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="80" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="84" t="str">
+      <c r="Q11" s="52"/>
+      <c r="R11" s="58" t="str">
         <f>IF(Q11&gt;0, VLOOKUP(Q11, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="126">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="105"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="127">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="23" t="s">
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="94">
+      <c r="M13" s="45">
         <v>5</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="80" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="84" t="str">
+      <c r="Q13" s="52"/>
+      <c r="R13" s="58" t="str">
         <f>IF(Q13&gt;0, VLOOKUP(Q13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="127">
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="98" t="str">
+      <c r="D14" s="48" t="str">
         <f t="shared" ref="D14:K14" si="1">IF(D13&gt;0, VLOOKUP(D13, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E14" s="95" t="str">
+      <c r="E14" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="98" t="str">
+      <c r="F14" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="95" t="str">
+      <c r="G14" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="98" t="str">
+      <c r="H14" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="95" t="str">
+      <c r="I14" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J14" s="98" t="str">
+      <c r="J14" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="95" t="str">
+      <c r="K14" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="90"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="14"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="127">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="80" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="82" t="s">
+      <c r="P15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="84" t="str">
+      <c r="Q15" s="52"/>
+      <c r="R15" s="58" t="str">
         <f>IF(Q15&gt;0, VLOOKUP(Q15, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="128">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="105"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="59"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="126">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="80" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="84" t="str">
+      <c r="Q17" s="52"/>
+      <c r="R17" s="58" t="str">
         <f>IF(Q17&gt;0, VLOOKUP(Q17, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="127">
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="85"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="71"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="127">
         <v>18</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23" t="s">
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="94">
+      <c r="M19" s="45">
         <v>4</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="80" t="s">
+      <c r="N19" s="18"/>
+      <c r="O19" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="82" t="s">
+      <c r="P19" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="84" t="str">
+      <c r="Q19" s="52"/>
+      <c r="R19" s="58" t="str">
         <f>IF(Q19&gt;0, VLOOKUP(Q19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="127">
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="D20" s="98" t="str">
+      <c r="D20" s="48" t="str">
         <f t="shared" ref="D20:K20" si="2">IF(D19&gt;0, VLOOKUP(D19, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E20" s="95" t="str">
+      <c r="E20" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F20" s="98" t="str">
+      <c r="F20" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="95" t="str">
+      <c r="G20" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H20" s="98" t="str">
+      <c r="H20" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="95" t="str">
+      <c r="I20" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="98" t="str">
+      <c r="J20" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="95" t="str">
+      <c r="K20" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="90"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="85"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="71"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="128">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="80" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="82" t="s">
+      <c r="P21" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="84" t="str">
+      <c r="Q21" s="52"/>
+      <c r="R21" s="58" t="str">
         <f>IF(Q21&gt;0, VLOOKUP(Q21, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="126">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="85"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="71"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="127">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="80" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="82" t="s">
+      <c r="P23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="84" t="str">
+      <c r="Q23" s="52"/>
+      <c r="R23" s="58" t="str">
         <f>IF(Q23&gt;0, VLOOKUP(Q23, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="127">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="105"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="59"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="127">
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="23" t="s">
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="94">
+      <c r="M25" s="45">
         <v>3</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="28" t="s">
+      <c r="N25" s="18"/>
+      <c r="O25" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="82" t="s">
+      <c r="P25" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="84" t="str">
+      <c r="Q25" s="52"/>
+      <c r="R25" s="58" t="str">
         <f>IF(Q25&gt;0, VLOOKUP(Q25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="129">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="D26" s="98" t="str">
+      <c r="D26" s="48" t="str">
         <f t="shared" ref="D26:K26" si="3">IF(D25&gt;0, VLOOKUP(D25, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E26" s="95" t="str">
+      <c r="E26" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="98" t="str">
+      <c r="F26" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="95" t="str">
+      <c r="G26" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H26" s="98" t="str">
+      <c r="H26" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="95" t="str">
+      <c r="I26" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J26" s="98" t="str">
+      <c r="J26" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="95" t="str">
+      <c r="K26" s="54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L26" s="89" t="s">
+      <c r="L26" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="90"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="105"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="59"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="130">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="82" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="84" t="str">
+      <c r="Q27" s="52"/>
+      <c r="R27" s="58" t="str">
         <f>IF(Q27&gt;0, VLOOKUP(Q27, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="127">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="105"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="59"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="127">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="82" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="84" t="str">
+      <c r="Q29" s="52"/>
+      <c r="R29" s="58" t="str">
         <f>IF(Q29&gt;0, VLOOKUP(Q29, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="127">
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="105"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="59"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="A31" s="128">
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="23" t="s">
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M31" s="94">
+      <c r="M31" s="45">
         <v>2</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="82" t="s">
+      <c r="N31" s="18"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="84" t="str">
+      <c r="Q31" s="52"/>
+      <c r="R31" s="58" t="str">
         <f>IF(Q31&gt;0, VLOOKUP(Q31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="126">
         <v>31</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="D32" s="98" t="str">
+      <c r="D32" s="48" t="str">
         <f t="shared" ref="D32:K32" si="4">IF(D31&gt;0, VLOOKUP(D31, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E32" s="95" t="str">
+      <c r="E32" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F32" s="98" t="str">
+      <c r="F32" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G32" s="95" t="str">
+      <c r="G32" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H32" s="98" t="str">
+      <c r="H32" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="95" t="str">
+      <c r="I32" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J32" s="98" t="str">
+      <c r="J32" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K32" s="95" t="str">
+      <c r="K32" s="54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L32" s="89" t="s">
+      <c r="L32" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="90"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="85"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="71"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="127">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="82" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="84" t="str">
+      <c r="Q33" s="52"/>
+      <c r="R33" s="58" t="str">
         <f>IF(Q33&gt;0, VLOOKUP(Q33, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="127">
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="85"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="71"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="127">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="30" t="s">
+      <c r="D35" s="46"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="34" t="str">
+      <c r="Q35" s="114"/>
+      <c r="R35" s="116" t="str">
         <f>IF(Q35&gt;0, VLOOKUP(Q35, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="128">
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="35"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="117"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="126">
         <v>36</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="23" t="s">
+      <c r="D37" s="131"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="94">
+      <c r="M37" s="45">
         <v>1</v>
       </c>
-      <c r="N37" s="24"/>
+      <c r="N37" s="18"/>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="127">
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="D38" s="98" t="str">
+      <c r="D38" s="48" t="str">
         <f t="shared" ref="D38:K38" si="5">IF(D37&gt;0, VLOOKUP(D37, $A$2:$B$50, 2), "")</f>
         <v/>
       </c>
-      <c r="E38" s="95" t="str">
+      <c r="E38" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F38" s="98" t="str">
+      <c r="F38" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G38" s="95" t="str">
+      <c r="G38" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H38" s="98" t="str">
+      <c r="H38" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="95" t="str">
+      <c r="I38" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J38" s="98" t="str">
+      <c r="J38" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K38" s="95" t="str">
+      <c r="K38" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L38" s="89" t="s">
+      <c r="L38" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="90"/>
-      <c r="N38" s="25"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="19"/>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="127">
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="25"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="127">
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="25"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="A41" s="128">
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="25"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="126">
         <v>41</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="25"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="19"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="127">
         <v>42</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S43" s="19"/>
+      <c r="S43" s="14"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44" s="127">
         <v>43</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="127">
         <v>44</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="D45" s="126" t="s">
+      <c r="D45" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="127"/>
+      <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="128">
         <v>45</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="112"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="82"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="112"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="82"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
     </row>
     <row r="49" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="E49" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="70" t="s">
+      <c r="F49" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="74" t="s">
+      <c r="G49" s="100"/>
+      <c r="H49" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="68" t="s">
+      <c r="I49" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="70" t="s">
+      <c r="J49" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="71"/>
-      <c r="L49" s="58" t="s">
+      <c r="K49" s="100"/>
+      <c r="L49" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="59"/>
-      <c r="N49" s="68" t="s">
+      <c r="M49" s="103"/>
+      <c r="N49" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="60" t="s">
+      <c r="O49" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="P49" s="61"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
+      <c r="P49" s="40"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
     </row>
     <row r="50" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="67"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="125"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="38"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
     </row>
     <row r="51" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="129"/>
-      <c r="F51" s="56" t="str">
+      <c r="E51" s="105"/>
+      <c r="F51" s="106" t="str">
         <f>IF(E51&gt;0, VLOOKUP(E51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="56" t="str">
+      <c r="G51" s="107"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="106" t="str">
         <f>IF(I51&gt;0, VLOOKUP(I51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K51" s="57"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="60" t="str">
+      <c r="K51" s="107"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="103"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="39" t="str">
         <f>IF(N51&gt;0, VLOOKUP(N51, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P51" s="61"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
+      <c r="P51" s="40"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
     </row>
     <row r="52" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="36"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="55"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="111"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
     </row>
     <row r="53" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="38" t="str">
+      <c r="E53" s="23"/>
+      <c r="F53" s="25" t="str">
         <f>IF(E53&gt;0, VLOOKUP(E53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="38" t="str">
+      <c r="G53" s="26"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="25" t="str">
         <f>IF(I53&gt;0, VLOOKUP(I53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K53" s="39"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="47" t="str">
+      <c r="K53" s="26"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="35" t="str">
         <f>IF(N53&gt;0, VLOOKUP(N53, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P53" s="48"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
+      <c r="P53" s="36"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
     </row>
     <row r="54" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="36"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="55"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="110"/>
+      <c r="P54" s="111"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
     </row>
     <row r="55" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="130"/>
-      <c r="F55" s="38" t="str">
+      <c r="E55" s="23"/>
+      <c r="F55" s="25" t="str">
         <f t="shared" ref="F55" si="6">IF(E55&gt;0, VLOOKUP(E55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="38" t="str">
+      <c r="G55" s="26"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="25" t="str">
         <f t="shared" ref="J55" si="7">IF(I55&gt;0, VLOOKUP(I55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K55" s="39"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="47" t="str">
+      <c r="K55" s="26"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="35" t="str">
         <f t="shared" ref="O55" si="8">IF(N55&gt;0, VLOOKUP(N55, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P55" s="48"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
+      <c r="P55" s="36"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
     </row>
     <row r="56" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="36"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="55"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="111"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
     </row>
     <row r="57" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="36"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="38" t="str">
+      <c r="D57" s="21"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="25" t="str">
         <f t="shared" ref="F57" si="9">IF(E57&gt;0, VLOOKUP(E57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="38" t="str">
+      <c r="G57" s="26"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="25" t="str">
         <f t="shared" ref="J57" si="10">IF(I57&gt;0, VLOOKUP(I57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K57" s="39"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="47" t="str">
+      <c r="K57" s="26"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="35" t="str">
         <f t="shared" ref="O57" si="11">IF(N57&gt;0, VLOOKUP(N57, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P57" s="48"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
+      <c r="P57" s="36"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
     </row>
     <row r="58" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="36"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="55"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="111"/>
     </row>
     <row r="59" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="36"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="38" t="str">
+      <c r="D59" s="21"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="25" t="str">
         <f t="shared" ref="F59" si="12">IF(E59&gt;0, VLOOKUP(E59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="38" t="str">
+      <c r="G59" s="26"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="25" t="str">
         <f t="shared" ref="J59" si="13">IF(I59&gt;0, VLOOKUP(I59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K59" s="39"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="130"/>
-      <c r="O59" s="47" t="str">
+      <c r="K59" s="26"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="35" t="str">
         <f t="shared" ref="O59" si="14">IF(N59&gt;0, VLOOKUP(N59, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P59" s="48"/>
+      <c r="P59" s="36"/>
     </row>
     <row r="60" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="37"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="131"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="50"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="123"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="124"/>
+      <c r="P60" s="125"/>
     </row>
     <row r="61" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="36"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="38" t="str">
+      <c r="D61" s="21"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="25" t="str">
         <f t="shared" ref="F61" si="15">IF(E61&gt;0, VLOOKUP(E61, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="G61" s="39"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="38" t="str">
+      <c r="G61" s="26"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="25" t="str">
         <f t="shared" ref="J61" si="16">IF(I61&gt;0, VLOOKUP(I61, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="K61" s="39"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="130"/>
-      <c r="O61" s="47" t="str">
+      <c r="K61" s="26"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="35" t="str">
         <f t="shared" ref="O61" si="17">IF(N61&gt;0, VLOOKUP(N61, $A$2:$B$55, 2), "")</f>
         <v/>
       </c>
-      <c r="P61" s="48"/>
+      <c r="P61" s="36"/>
     </row>
     <row r="62" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="67"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="124"/>
-      <c r="P62" s="125"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:K62"/>
-    <mergeCell ref="L61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:K58"/>
+    <mergeCell ref="L57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="D1:M3"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M13:M18"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
     <mergeCell ref="O49:P50"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="O25:O26"/>
@@ -4154,169 +4309,15 @@
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="I20:I24"/>
     <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="M13:M18"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="D1:M3"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="L53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:K58"/>
-    <mergeCell ref="L57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:K62"/>
+    <mergeCell ref="L61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:P62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A46">
